--- a/epigraphhub/data/brasil/sinan/metadata/HANS.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/HANS.xlsx
@@ -43,8 +43,7 @@
     <t xml:space="preserve">DBF</t>
   </si>
   <si>
-    <t xml:space="preserve">31. Nº de
-Prontuário</t>
+    <t xml:space="preserve">31. Nº de Prontuário</t>
   </si>
   <si>
     <t xml:space="preserve">ds_prontuario</t>
@@ -96,8 +95,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nº de lesões
-cutâneas</t>
+    <t xml:space="preserve">33. Nº de lesões cutâneas</t>
   </si>
   <si>
     <t xml:space="preserve">nu_lesao_cultanea</t>
@@ -142,8 +140,7 @@
     <t xml:space="preserve">FORMACLINI</t>
   </si>
   <si>
-    <t xml:space="preserve">35. Classificação
-Operacional</t>
+    <t xml:space="preserve">35. Classificação Operacional</t>
   </si>
   <si>
     <t xml:space="preserve">tp_classfic_operacional</t>
@@ -164,8 +161,7 @@
     <t xml:space="preserve">CLASSOPERA</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Nº de nervos
-afetados</t>
+    <t xml:space="preserve">36. Nº de nervos afetados</t>
   </si>
   <si>
     <t xml:space="preserve">nu_nervo_afetado</t>
@@ -177,10 +173,7 @@
     <t xml:space="preserve">NERVOSAFET</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Avaliação do
-Grau de
-Incapacidade Física
-no Diagnóstico</t>
+    <t xml:space="preserve">37. Avaliação do Grau de Incapacidade Física no Diagnóstico</t>
   </si>
   <si>
     <t xml:space="preserve">tp_incapacidade_fisica</t>
@@ -257,9 +250,7 @@
     <t xml:space="preserve">MODOENTR</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Modo de
-detecção de caso
-novo</t>
+    <t xml:space="preserve">39. Modo de detecção de caso novo</t>
   </si>
   <si>
     <t xml:space="preserve">tp_caso_novo</t>
@@ -326,8 +317,7 @@
 BACILOSCO</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Data do início do
-tratamento</t>
+    <t xml:space="preserve">41. Data do início do tratamento</t>
   </si>
   <si>
     <t xml:space="preserve">dt_ini_tratamento</t>
@@ -396,8 +386,7 @@
     <t xml:space="preserve">DTINICTRAT</t>
   </si>
   <si>
-    <t xml:space="preserve">42. Esquema
-terapêutico inicial</t>
+    <t xml:space="preserve">42. Esquema terapêutico inicial</t>
   </si>
   <si>
     <t xml:space="preserve">tp_esquema_terapeutico</t>
@@ -445,8 +434,7 @@
     <t xml:space="preserve">ESQ_INI_N</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Nº de contatos
-registrados</t>
+    <t xml:space="preserve">43. Nº de contatos registrados</t>
   </si>
   <si>
     <t xml:space="preserve">nu_contato_registrado</t>
@@ -461,8 +449,7 @@
     <t xml:space="preserve">CONTREG</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifica migração
-(campo interno)</t>
+    <t xml:space="preserve">Identifica migração (campo interno)</t>
   </si>
   <si>
     <t xml:space="preserve">st_importado</t>
@@ -483,8 +470,7 @@
     <t xml:space="preserve">MIGRADO_W</t>
   </si>
   <si>
-    <t xml:space="preserve">1. UF de
-atendimento atual</t>
+    <t xml:space="preserve">1. UF de atendimento atual</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_atual</t>
@@ -502,42 +488,23 @@
 pelo tratamento atual do paciente</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Preenchimento automático
+    <t xml:space="preserve">Preenchimento automático
 pela primeira vez a partir do
 município notificante
 (SG_UF).
 Quando o paciente muda de
-unidade de tratamento e é </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">notificado novamente, este
+unidade de tratamento e é notificado novamente, este
 campo é atualizado
 automaticamente ao ser
 acionada a rotina de
 vinculação. entre as duas
 Notificações.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">UFATUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Município de
-atendimento atual</t>
+    <t xml:space="preserve">2. Município de atendimento atual</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_atual</t>
@@ -571,8 +538,7 @@
     <t xml:space="preserve">ID_MUNI_AT</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Número de
-notificação atual</t>
+    <t xml:space="preserve">3. Número de notificação atual</t>
   </si>
   <si>
     <t xml:space="preserve">nu_notificacao_atual</t>
@@ -605,8 +571,7 @@
     <t xml:space="preserve">NU_NOT_AT</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Data de
-notificação atual</t>
+    <t xml:space="preserve">4. Data de notificação atual</t>
   </si>
   <si>
     <t xml:space="preserve">dt_notificacao_atual</t>
@@ -617,43 +582,24 @@
 pelo tratamento atual do caso</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Preenchimento automático
+    <t xml:space="preserve">Preenchimento automático
 pela primeira vez a partir da
 Data da notificação efetuada
 pela unidade que
 diagnosticou o caso
 (DT_NOTIFICACAO)
 Quando o paciente muda de
-unidade de tratamento e é </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">notificado novamente, este
+unidade de tratamento e é notificado novamente, este
 campo é atualizado
 automaticamente ao ser
 acionada a rotina de
 Vinculação.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">DT_NOTI_AT</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Unidade de
-atendimento atual</t>
+    <t xml:space="preserve">5. Unidade de atendimento atual</t>
   </si>
   <si>
     <t xml:space="preserve">co_unidade_atual</t>
@@ -685,9 +631,7 @@
     <t xml:space="preserve">ID_UNID_AT</t>
   </si>
   <si>
-    <t xml:space="preserve">6. UF de residência
-atual
-(*)</t>
+    <t xml:space="preserve">6. UF de residência atual (*)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_residencia_atual</t>
@@ -709,9 +653,7 @@
     <t xml:space="preserve">UFRESAT</t>
   </si>
   <si>
-    <t xml:space="preserve">7. Município de
-residência atual
-(*)</t>
+    <t xml:space="preserve">7. Município de residência atual (*)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_residencia_atual</t>
@@ -760,141 +702,31 @@
     <t xml:space="preserve">CEP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9. Distrito de </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">residência atual</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">co_distrito_residenc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">ia_atual</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">numeric(9)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">varchar(60)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Segundo cadastro do </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">módulo de tabelas do
+    <t xml:space="preserve">9. Distrito de residência atual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_distrito_residencia_atual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric(9)
+varchar(60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo cadastro do módulo de tabelas do
 SINAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Código do distrito de residência </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">atual do paciente, segundo
+  </si>
+  <si>
+    <t xml:space="preserve">Código do distrito de residência atual do paciente, segundo
 cadastro do módulo de tabelas do
 SINAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Não será uma variável. A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">informação sobre distrito será
+  </si>
+  <si>
+    <t xml:space="preserve">Não será uma variável. A informação sobre distrito será
 obtida diretamente do bairro
 de residência atual. Permite
 atualização, através de
 digitação direta de dado do
 acompanhamento do caso.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">DISTRIT_AT</t>
@@ -1010,8 +842,7 @@
     <t xml:space="preserve">DTULTCOMP</t>
   </si>
   <si>
-    <t xml:space="preserve">12. Classificação
-operacional atual</t>
+    <t xml:space="preserve">12. Classificação operacional atual</t>
   </si>
   <si>
     <t xml:space="preserve">tp_classific_operacao_atual</t>
@@ -1052,26 +883,14 @@
 ocasião da notificação.
 Permite atualização, através
 de digitação direta de dado
-do acompanhamento do </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">caso.</t>
+do acompanhamento do caso.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">CLASSATUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">13. Avaliação de
-incapacidade física
-no momento da
-cura</t>
+    <t xml:space="preserve">13. Avaliação de incapacidade física no momento da cura</t>
   </si>
   <si>
     <t xml:space="preserve">tp_incapacidade_fisica_cura</t>
@@ -1171,8 +990,7 @@
     <t xml:space="preserve">AVAL_ATU_N</t>
   </si>
   <si>
-    <t xml:space="preserve">14. Esquema
-terapêutico atual</t>
+    <t xml:space="preserve">14. Esquema terapêutico atual</t>
   </si>
   <si>
     <t xml:space="preserve">tp_esquema_terapeutico_atual</t>
@@ -1218,9 +1036,7 @@
     <t xml:space="preserve">ESQ_ATU_N</t>
   </si>
   <si>
-    <t xml:space="preserve">15. Número de
-doses
-supervisionadas</t>
+    <t xml:space="preserve">15. Número de doses supervisionadas</t>
   </si>
   <si>
     <t xml:space="preserve">nu_dose_recebida</t>
@@ -1234,9 +1050,7 @@
     <t xml:space="preserve">DOSE_RECEB</t>
   </si>
   <si>
-    <t xml:space="preserve">16. Episódio
-Reacional Durante o
-Tratamento</t>
+    <t xml:space="preserve">16. Episódio Reacional Durante o Tratamento</t>
   </si>
   <si>
     <t xml:space="preserve">tp_reacao_tratamento</t>
@@ -1255,9 +1069,7 @@
     <t xml:space="preserve">EPIS_RACIO</t>
   </si>
   <si>
-    <t xml:space="preserve">17. Data de
-mudança do
-Esquema</t>
+    <t xml:space="preserve">17. Data de mudança do Esquema</t>
   </si>
   <si>
     <t xml:space="preserve">dt_mudanca_esquema</t>
@@ -1270,9 +1082,7 @@
     <t xml:space="preserve">DTMUDESQ</t>
   </si>
   <si>
-    <t xml:space="preserve">18. Número de
-contatos
-examinados</t>
+    <t xml:space="preserve">18. Número de contatos examinados</t>
   </si>
   <si>
     <t xml:space="preserve">nu_contato_examinado</t>
@@ -1317,16 +1127,7 @@
 7- Abandono
 8- Erro diagnóstico
 9- transf. não especificada
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(opção inexistente para
+(opção inexistente para
 digitação mas consta na
 base de dados para casos
 migrados ou notificados até
@@ -1341,6 +1142,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Transferência</t>
     </r>
@@ -1350,6 +1152,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1443,6 +1246,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">A opçãp 9- transf. não
 especificada é encontrada na
@@ -1458,6 +1262,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Saída
 administrativa </t>
@@ -1468,6 +1273,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">era
 </t>
@@ -1479,6 +1285,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">transferência</t>
     </r>
@@ -1488,6 +1295,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, pois não havia
 discriminação das
@@ -1501,32 +1309,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TPALTA_N
+    <t xml:space="preserve">TPALTA_N
 OBS: PARA EVITAR
 MODIFICAÇÕES
 NAS DEMAIS
 ROTINAS DO
-SISTEMA, OPTOU-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">SE POR MANTER O
+SISTEMA, OPTOU-SE POR MANTER O
 NOME DESSA
 VARIÁVEL.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">20. Data da alta</t>
@@ -1633,10 +1423,7 @@
     <t xml:space="preserve">IN_VINCULA</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferência
-vertical da
-investigação e do
-acompanhamento</t>
+    <t xml:space="preserve">Transferência vertical da investigação e do acompanhamento</t>
   </si>
   <si>
     <t xml:space="preserve">nu_lote_vertical</t>
@@ -1695,7 +1482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1742,29 +1529,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <i val="true"/>
@@ -1920,7 +1687,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1944,7 +1711,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.48828125" defaultRowHeight="64.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
